--- a/curator-annotations/Phenotype_Annotations/Phenotype_annotation_APR-06-2021.xlsx
+++ b/curator-annotations/Phenotype_Annotations/Phenotype_annotation_APR-06-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrafey/Data/dictyBase/Overhaul/Bulk annotation files/Phenotype annotations/Submitted files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjd727/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57F011-E759-6A4F-ADAC-D95DF7A29E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9150BF-672D-8E4B-96C9-0CC2FD64C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="4460" windowWidth="22980" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="720" windowWidth="34940" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Strain ID</t>
   </si>
@@ -146,6 +146,120 @@
   </si>
   <si>
     <t>expression of redox- insensitive RasG partially rescues the CV biogenesis defect (29 and 66%, size and number) of sodC- cells.</t>
+  </si>
+  <si>
+    <t>DDPHENO:0000295</t>
+  </si>
+  <si>
+    <t>abolished protein binding</t>
+  </si>
+  <si>
+    <t>DBS0351621</t>
+  </si>
+  <si>
+    <t>DDASSAY:0000030</t>
+  </si>
+  <si>
+    <t>western blot</t>
+  </si>
+  <si>
+    <t>robert-dodson@northwestern.edu</t>
+  </si>
+  <si>
+    <t>PMID:33238110</t>
+  </si>
+  <si>
+    <t>DDPHENO:0001062</t>
+  </si>
+  <si>
+    <t>abolished protein kinase activation</t>
+  </si>
+  <si>
+    <t>abolished TORC2 activation</t>
+  </si>
+  <si>
+    <t>DBS0351628</t>
+  </si>
+  <si>
+    <t>DBS0351624</t>
+  </si>
+  <si>
+    <t>decreased RacE oligomerization</t>
+  </si>
+  <si>
+    <t>DDPHENO:0000296</t>
+  </si>
+  <si>
+    <t>decreased protein binding</t>
+  </si>
+  <si>
+    <t>abolished binding to RasC and abolished hetero-oligimerization with RasC</t>
+  </si>
+  <si>
+    <t>abolished binding to racE and abolished hetero-oligimerization with RacE</t>
+  </si>
+  <si>
+    <t>DBS0351623</t>
+  </si>
+  <si>
+    <t>DDPHENO:0001061</t>
+  </si>
+  <si>
+    <t>increased protein kinase activation</t>
+  </si>
+  <si>
+    <t>in constitutively GDP bound RacE cells increased phosphorylation and activation of PkbA and PkbR1</t>
+  </si>
+  <si>
+    <t>DDENVIR:0000016</t>
+  </si>
+  <si>
+    <t>during cAMP stimulation</t>
+  </si>
+  <si>
+    <t>DBS0351622</t>
+  </si>
+  <si>
+    <t>DDPHENO:0001058</t>
+  </si>
+  <si>
+    <t>decreased protein kinase activation</t>
+  </si>
+  <si>
+    <t>in constitutively GTP bound racE cells, decreased phosphorylation (deactivation) of PkbA and PkbR1</t>
+  </si>
+  <si>
+    <t>DBS0351625</t>
+  </si>
+  <si>
+    <t>In constitutively GTP bound, phospho-defective racE cells, abolished phosphorylation and activation of PkbA and PkbR1</t>
+  </si>
+  <si>
+    <t>DBS0351626</t>
+  </si>
+  <si>
+    <t>DDPHENO:0000142</t>
+  </si>
+  <si>
+    <t>wild type</t>
+  </si>
+  <si>
+    <t>E180R/R186E substitutions to prevent GTP-RacE: GTP-RacE self binding in a constitutively GTP-bound, phospho-defective RacE strain restores protein kinase B phosphorylation and activation to wt levels</t>
+  </si>
+  <si>
+    <t>aberrant protein localization</t>
+  </si>
+  <si>
+    <t>DDPHENO:0000471</t>
+  </si>
+  <si>
+    <t>constitutively GTP bound racE cells are enriched at the rear of the cells compared with wt cells which are uniformly distrubuted throughout the cell periphery</t>
+  </si>
+  <si>
+    <t>DDASSAY:0000041</t>
+  </si>
+  <si>
+    <t>confocal microscopy</t>
   </si>
 </sst>
 </file>
@@ -1394,20 +1508,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="177" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="20" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="63.1640625" style="3" customWidth="1"/>
     <col min="5" max="7" width="23.1640625" style="3"/>
     <col min="8" max="8" width="17.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="32.5" style="3" customWidth="1"/>
     <col min="11" max="16384" width="23.1640625" style="3"/>
   </cols>
   <sheetData>
@@ -1668,124 +1782,296 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
@@ -1845,6 +2131,16 @@
     <hyperlink ref="J6" r:id="rId5" xr:uid="{01636883-3B91-7243-939C-1BED6755CE73}"/>
     <hyperlink ref="J7" r:id="rId6" xr:uid="{6995F400-214E-6848-A60B-1A59476AE6ED}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{0E7EA9D8-E5D4-B74A-A018-84463C7EF4BD}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{8FC36743-1CBD-2A4E-833D-E68D2823C4AD}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{B9DB8356-406D-E748-A666-64D5B4E1AD2E}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{8BE0F851-B9F0-5647-97D0-0E136E7C13EB}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{DCC7B8E1-A2D7-8A4C-AAF9-E3C530AB0CC0}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{62C54F56-D62C-B444-82FA-F98F0F21FFCF}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{74160A17-EA39-4346-9374-D9B76049A082}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{5AF9C668-2DC7-FB42-8EBC-A8802965DAF1}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{E4F720D7-493E-1942-838D-FDDB02CAF02D}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{64B513D2-B90C-AF42-8404-27F209CCCF54}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{340A408F-DF91-F749-92BE-49C410EB3640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" orientation="portrait"/>
